--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s2_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>208.3818671875161</v>
+        <v>211.6823605626521</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.42186718751606</v>
+        <v>51.68236056265209</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.412991504336474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.412991504336474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.28</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -863,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.66483080554379</v>
+        <v>31.76867181806009</v>
       </c>
     </row>
     <row r="4">
@@ -903,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.72978832722616</v>
+        <v>41.6086347173128</v>
       </c>
     </row>
     <row r="9">
@@ -911,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.32314874444808</v>
+        <v>43.83362933974247</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,20 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>191.1399999999998</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>192.2399999999998</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>190.8349999999998</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10">
@@ -1101,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>197.3749999999998</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
@@ -1112,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>200.84</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12">
@@ -1123,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>147.4849999999999</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -1134,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>155.2049999999999</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -1145,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>149.5399999999999</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -1156,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>157.8649999999999</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -1167,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>156.9700000000001</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>36.21999999999935</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -1189,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>39.58999999999935</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>32.85499999999935</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -1211,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>40.98999999999935</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -1222,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.05</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>99.51000000000037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -1244,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>98.41000000000037</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1255,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>94.89000000000037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1266,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>95.94000000000037</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -1277,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>99.57500000000036</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -1288,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>151.7450000000011</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
@@ -1299,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>142.7600000000011</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
@@ -1310,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>139.4150000000011</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
@@ -1321,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>141.7250000000011</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -1332,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>150.3750000000011</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
@@ -1343,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>191.1399999999998</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -1354,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>192.2399999999998</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34">
@@ -1365,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>190.8349999999998</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -1376,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>197.3749999999998</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36">
@@ -1387,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>200.84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -1398,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>151.7450000000011</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38">
@@ -1409,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>142.7600000000011</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39">
@@ -1420,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>139.4150000000011</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40">
@@ -1431,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>141.7250000000011</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -1442,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>150.3750000000011</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1745,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1756,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1767,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1778,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1789,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1800,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6.66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1811,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>14.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1822,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>7.68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1833,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>14.11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1844,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1913,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1938,17 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
